--- a/data/trans_dic/P25_6-Urba-trans_dic.xlsx
+++ b/data/trans_dic/P25_6-Urba-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:T12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -529,12 +530,18 @@
     <col width="14" customWidth="1" min="12" max="12"/>
     <col width="14" customWidth="1" min="13" max="13"/>
     <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que padece enfermedades del corazón (trastornos cardíacos/insufiencia cardíaca /insuficiencia cardíaca congestiva; angina de pecho; infarto de miocardio/ataque al corazón)</t>
+          <t>Población que padece enfermedades del corazón (trastornos cardíacos/insufiencia cardíaca /insuficiencia cardíaca congestiva; angina de pecho; infarto de miocardio/ataque al corazón) (tasa de respuesta: 99,92%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -546,22 +553,28 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="K1" s="3" t="n"/>
       <c r="L1" s="3" t="n"/>
       <c r="M1" s="3" t="n"/>
       <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -583,47 +596,77 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="Q2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -642,6 +685,12 @@
       <c r="L3" s="2" t="n"/>
       <c r="M3" s="2" t="n"/>
       <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -656,62 +705,92 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>5,63%</t>
+          <t>5,83%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>6,01%</t>
+          <t>6,12%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
+          <t>6,48%</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>6,77%</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>6,13%</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>8,01%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>4,82%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>7,05%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>6,04%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>8,07%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>6,98%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
           <t>6,6%</t>
         </is>
       </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>6,12%</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>4,65%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>6,95%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>5,95%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>6,98%</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>5,12%</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>6,5%</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>6,26%</t>
-        </is>
-      </c>
-      <c r="N4" s="2" t="inlineStr">
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>5,3%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>6,61%</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>6,25%</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>7,45%</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
         <is>
           <t>6,56%</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>7,3%</t>
         </is>
       </c>
     </row>
@@ -724,62 +803,92 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>4,04; 7,76</t>
+          <t>4,29; 8,16</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>4,44; 7,98</t>
+          <t>4,4; 8,08</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>4,69; 8,89</t>
+          <t>4,62; 8,74</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>4,38; 8,51</t>
+          <t>4,71; 9,36</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>3,25; 6,59</t>
+          <t>4,37; 8,27</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>5,27; 8,99</t>
+          <t>5,96; 10,7</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>4,44; 7,86</t>
+          <t>3,45; 6,89</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>5,27; 9,31</t>
+          <t>5,26; 9,1</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>3,92; 6,48</t>
+          <t>4,3; 8,03</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>5,41; 8,13</t>
+          <t>5,88; 11,43</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>4,99; 7,78</t>
+          <t>5,14; 9,15</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>5,36; 8,14</t>
+          <t>4,87; 8,87</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>4,2; 6,79</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>5,44; 8,23</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>5,0; 7,56</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>5,78; 9,47</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>5,25; 8,05</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>5,77; 9,03</t>
         </is>
       </c>
     </row>
@@ -796,62 +905,92 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>6,04%</t>
+          <t>6,01%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>3,69%</t>
+          <t>3,77%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>6,07%</t>
+          <t>6,0%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>4,04%</t>
+          <t>7,38%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>5,58%</t>
+          <t>4,03%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>4,34%</t>
+          <t>2,49%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>6,33%</t>
+          <t>6,34%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
+          <t>4,48%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>6,85%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>7,51%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
           <t>6,76%</t>
         </is>
       </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>5,81%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>4,02%</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>6,2%</t>
-        </is>
-      </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
+          <t>7,0%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>6,18%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>4,12%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>6,42%</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>7,45%</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
           <t>5,33%</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>4,64%</t>
         </is>
       </c>
     </row>
@@ -864,62 +1003,92 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>4,03; 9,21</t>
+          <t>3,99; 9,09</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>2,32; 5,66</t>
+          <t>2,46; 5,64</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>4,11; 8,63</t>
+          <t>4,15; 8,51</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>1,86; 7,3</t>
+          <t>5,15; 10,98</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>3,69; 8,2</t>
+          <t>2,01; 7,4</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>2,8; 6,31</t>
+          <t>1,12; 4,67</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>4,44; 9,25</t>
+          <t>4,31; 10,12</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>3,6; 12,36</t>
+          <t>2,92; 6,62</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>4,31; 7,69</t>
+          <t>4,55; 10,86</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>3,06; 5,42</t>
+          <t>5,1; 10,66</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>4,78; 7,89</t>
+          <t>3,42; 12,28</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>3,17; 8,16</t>
+          <t>4,18; 11,52</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>4,6; 8,22</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>3,03; 5,59</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>5,04; 9,08</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>5,67; 9,59</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>3,26; 8,06</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>3,04; 6,83</t>
         </is>
       </c>
     </row>
@@ -936,60 +1105,90 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>10,81%</t>
+          <t>10,55%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>7,81%</t>
+          <t>8,23%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>6,31%</t>
+          <t>6,61%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
+          <t>4,67%</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>6,84%</t>
-        </is>
-      </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>7,76%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>11,68%</t>
+          <t>7,52%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
+          <t>7,84%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>11,64%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>8,14%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>8,86%</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>7,79%</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>8,95%</t>
-        </is>
-      </c>
       <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>9,06%</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>8,04%</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>9,08%</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>6,38%</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
@@ -1004,60 +1203,90 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>5,77; 19,43</t>
+          <t>5,87; 17,42</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>4,46; 12,49</t>
+          <t>4,58; 13,44</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>3,18; 11,7</t>
+          <t>3,04; 11,99</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
+          <t>1,69; 11,46</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>3,27; 13,4</t>
-        </is>
-      </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>3,96; 13,33</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>7,18; 17,18</t>
+          <t>3,78; 13,35</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
+          <t>3,97; 13,54</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>7,03; 17,48</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>4,16; 15,59</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>5,5; 13,49</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>5,2; 11,03</t>
-        </is>
-      </c>
-      <c r="M9" s="2" t="inlineStr">
-        <is>
-          <t>5,97; 12,43</t>
-        </is>
-      </c>
       <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>5,98; 13,96</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>5,36; 11,71</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>5,98; 12,65</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>3,65; 11,03</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -1076,62 +1305,92 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>6,43%</t>
+          <t>6,48%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>5,31%</t>
+          <t>5,44%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>6,35%</t>
+          <t>6,3%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
+          <t>6,76%</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
           <t>5,62%</t>
         </is>
       </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>5,26%</t>
-        </is>
-      </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>6,05%</t>
+          <t>6,67%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>6,74%</t>
+          <t>5,71%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>6,94%</t>
+          <t>6,16%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>5,83%</t>
+          <t>6,98%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>5,69%</t>
+          <t>7,86%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>6,55%</t>
+          <t>6,93%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
+          <t>6,69%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>6,09%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>5,81%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>6,65%</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>7,32%</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
           <t>6,28%</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>6,68%</t>
         </is>
       </c>
     </row>
@@ -1144,75 +1403,1519 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>5,04; 8,32</t>
+          <t>5,13; 8,09</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>4,28; 6,81</t>
+          <t>4,33; 6,66</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>5,14; 7,85</t>
+          <t>5,03; 7,77</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>4,2; 7,55</t>
+          <t>5,3; 8,37</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>4,02; 6,72</t>
+          <t>4,24; 7,49</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>4,78; 7,39</t>
+          <t>5,08; 8,69</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>5,48; 8,39</t>
+          <t>4,49; 7,37</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>5,17; 8,88</t>
+          <t>5,02; 7,5</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>4,89; 6,98</t>
+          <t>5,69; 8,68</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>4,88; 6,6</t>
+          <t>6,04; 9,71</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>5,62; 7,73</t>
+          <t>5,28; 9,14</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>5,13; 7,6</t>
+          <t>5,24; 8,69</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>5,13; 7,33</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>5,09; 6,77</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>5,72; 7,82</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>6,12; 8,51</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>5,16; 7,68</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>5,49; 7,85</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="O1:T1"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="I1:N1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="C1:H1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:T16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que padece enfermedades del corazón (trastornos cardíacos/insufiencia cardíaca /insuficiencia cardíaca congestiva; angina de pecho; infarto de miocardio/ataque al corazón) (tasa de respuesta: 99,92%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Urbano</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>35.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>44.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>44.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>33.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>43.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>53.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>54.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>45.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>48.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>47.0</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>65.0</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>98.0</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>89.0</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>73.0</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>91.0</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>100.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>96359</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>100815</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>106409</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>111061</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>14019</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>18290</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>86571</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>128904</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>109817</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>145688</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>16564</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>15568</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>182930</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>229719</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>216227</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>256749</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>30582</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>33857</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>70889; 134852</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>72528; 133130</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>75835; 143641</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>77236; 153525</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>9993; 18929</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>13608; 24413</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>62008; 123842</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>96233; 166485</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>78187; 145982</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>106297; 206494</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>12190; 21711</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>11476; 20921</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>144939; 234302</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>189022; 286258</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>173227; 261695</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>199274; 326461</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>24465; 37501</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>26771; 41910</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Intermedio</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>29.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>32.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>32.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>33.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>32.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>55.0</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>47.0</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>65.0</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>64.0</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>82646</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>51983</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>82705</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>101957</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>2915</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>1823</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>88212</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>61464</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>94648</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>104579</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>4432</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>4667</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>170857</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>113447</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>177353</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>206537</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>7347</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>6490</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>54847; 124915</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>33943; 77756</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>57213; 117415</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>71111; 151576</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>1454; 5351</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>823; 3420</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>60040; 140790</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>40034; 90747</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>62861; 150038</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>70978; 148379</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>2245; 8051</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>2788; 7679</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>127228; 227311</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>83327; 153769</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>139263; 250830</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>157273; 265833</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>4492; 11108</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>4251; 9565</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Rural</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>44599</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>34791</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>27947</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>19750</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>30817</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>32127</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>47577</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>33520</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>75416</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>66918</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>75524</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>53270</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>24821; 73638</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>19382; 56836</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>12849; 50710</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>7136; 48464</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>15494; 54682</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>16268; 55466</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>28745; 71455</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>17149; 64215</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>49773; 116213</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>44576; 97453</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>49750; 105227</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>30427; 92052</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>77.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>80.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>86.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>70.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>53.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>61.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>65.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>90.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>96.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>82.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>59.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>62.0</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>142.0</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>170.0</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>182.0</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>152.0</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>112.0</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>123.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>223604</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>187589</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>217062</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>232768</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>16934</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>20113</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>205599</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>222495</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>252042</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>283788</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>20995</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>20234</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>429203</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>410084</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>469104</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>516556</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>37929</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
+        <is>
+          <t>40347</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>176856; 279208</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>149480; 229593</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>173399; 267806</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>182456; 288208</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>12777; 22555</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>15303; 26196</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>161493; 265407</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>181053; 270575</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>205331; 313403</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>218186; 350610</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>15986; 27685</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>15851; 26288</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>361467; 516358</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>359010; 477898</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>403453; 551611</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>431996; 600544</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>31163; 46375</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
+        <is>
+          <t>33132; 47394</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="O1:T1"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
